--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/10/seed5/result_data_RandomForest.xlsx
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.060400000000001</v>
+        <v>-7.949800000000003</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.661399999999994</v>
+        <v>-7.553199999999991</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.25029999999999</v>
+        <v>-11.10479999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -635,10 +635,10 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.549899999999996</v>
+        <v>5.543200000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.68470000000003</v>
+        <v>-14.66730000000002</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.5496</v>
+        <v>-12.5489</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.152699999999991</v>
+        <v>-8.120699999999992</v>
       </c>
       <c r="E19" t="n">
-        <v>13.74130000000001</v>
+        <v>13.71850000000001</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.6153</v>
+        <v>-7.5356</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.53359999999999</v>
+        <v>-10.40529999999998</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.233499999999999</v>
+        <v>-8.311700000000002</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
